--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:K10"/>
 </workbook>
 </file>
 
@@ -27,6 +27,63 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Share Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>WaveFile</t>
+  </si>
+  <si>
+    <t>PinkPanther60.wav</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>TestReject</t>
+  </si>
+  <si>
+    <t>Updated Description</t>
+  </si>
+  <si>
+    <t>Test2 Updated</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Test2 Updated 1</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
   </si>
   <si>
     <t>SELECT [FUNCTIONALITY] as Functionality
@@ -37,64 +94,7 @@
       ,[DESCRIPTION] as Description
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[IVR_HostMap_Details]</t>
-  </si>
-  <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>Share Name</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>WaveFile</t>
-  </si>
-  <si>
-    <t>PinkPanther60.wav</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>TestReject</t>
-  </si>
-  <si>
-    <t>Updated Description</t>
-  </si>
-  <si>
-    <t>Test2 Updated</t>
-  </si>
-  <si>
-    <t>Modify Reason</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Test2 Updated 1</t>
-  </si>
-  <si>
-    <t>Delete Reason</t>
+  FROM [IVR_HostMap_Details]</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -475,39 +475,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +533,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -591,25 +591,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -617,25 +617,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -687,22 +687,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,16 @@
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K10"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Host Data</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>TestReject</t>
-  </si>
-  <si>
     <t>Updated Description</t>
   </si>
   <si>
@@ -78,9 +66,6 @@
   </si>
   <si>
     <t>Modified</t>
-  </si>
-  <si>
-    <t>Test2 Updated 1</t>
   </si>
   <si>
     <t>Delete Reason</t>
@@ -95,6 +80,51 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [IVR_HostMap_Details]</t>
+  </si>
+  <si>
+    <t>Error Codes</t>
+  </si>
+  <si>
+    <t>Please provide input for Functionality</t>
+  </si>
+  <si>
+    <t>ErrorMsg2</t>
+  </si>
+  <si>
+    <t>Please provide input for Language</t>
+  </si>
+  <si>
+    <t>Please provide input for Host Data</t>
+  </si>
+  <si>
+    <t>ErrorMsg3</t>
+  </si>
+  <si>
+    <t>Please provide input for Status</t>
+  </si>
+  <si>
+    <t>ErrorMsg4</t>
+  </si>
+  <si>
+    <t>Please provide input for Description</t>
+  </si>
+  <si>
+    <t>ErrorMsg5</t>
+  </si>
+  <si>
+    <t>ErrorMsg6</t>
+  </si>
+  <si>
+    <t>Please provide input for Wave File</t>
+  </si>
+  <si>
+    <t>Duplicate Record</t>
+  </si>
+  <si>
+    <t>ErrorMsg7</t>
+  </si>
+  <si>
+    <t>ErrorMsg1</t>
   </si>
 </sst>
 </file>
@@ -132,8 +162,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,79 +469,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -530,12 +588,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +606,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,79 +623,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,45 +697,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:M22"/>
 </workbook>
 </file>
 
@@ -178,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -225,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Queries" sheetId="2" r:id="rId2"/>
-    <sheet name="Edit" sheetId="3" r:id="rId3"/>
-    <sheet name="Delete" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId2"/>
+    <sheet name="Queries" sheetId="2" r:id="rId3"/>
+    <sheet name="Edit" sheetId="3" r:id="rId4"/>
+    <sheet name="Delete" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M22"/>
+  <oleSize ref="A1:Q9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Host Data</t>
   </si>
@@ -53,15 +54,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Updated Description</t>
   </si>
   <si>
-    <t>Test2 Updated</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
@@ -69,62 +64,70 @@
   </si>
   <si>
     <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Please provide input for Functionality</t>
+  </si>
+  <si>
+    <t>ErrorMsg2</t>
+  </si>
+  <si>
+    <t>Please provide input for Language</t>
+  </si>
+  <si>
+    <t>Please provide input for Host Data</t>
+  </si>
+  <si>
+    <t>ErrorMsg3</t>
+  </si>
+  <si>
+    <t>Please provide input for Status</t>
+  </si>
+  <si>
+    <t>ErrorMsg4</t>
+  </si>
+  <si>
+    <t>Please provide input for Description</t>
+  </si>
+  <si>
+    <t>ErrorMsg5</t>
+  </si>
+  <si>
+    <t>ErrorMsg6</t>
+  </si>
+  <si>
+    <t>Please provide input for Wave File</t>
+  </si>
+  <si>
+    <t>Duplicate Record</t>
+  </si>
+  <si>
+    <t>ErrorMsg7</t>
+  </si>
+  <si>
+    <t>ErrorMsg1</t>
   </si>
   <si>
     <t>SELECT [FUNCTIONALITY] as Functionality
       ,[LANGUAGE] as Language
       ,[HOST_DATA] as 'Host Data'
       ,[WAV_FILE] as 'Wave File'
-      ,[STATUS] as 'Status'
       ,[DESCRIPTION] as Description
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
   FROM [IVR_HostMap_Details]</t>
   </si>
   <si>
-    <t>Error Codes</t>
-  </si>
-  <si>
-    <t>Please provide input for Functionality</t>
-  </si>
-  <si>
-    <t>ErrorMsg2</t>
-  </si>
-  <si>
-    <t>Please provide input for Language</t>
-  </si>
-  <si>
-    <t>Please provide input for Host Data</t>
-  </si>
-  <si>
-    <t>ErrorMsg3</t>
-  </si>
-  <si>
-    <t>Please provide input for Status</t>
-  </si>
-  <si>
-    <t>ErrorMsg4</t>
-  </si>
-  <si>
-    <t>Please provide input for Description</t>
-  </si>
-  <si>
-    <t>ErrorMsg5</t>
-  </si>
-  <si>
-    <t>ErrorMsg6</t>
-  </si>
-  <si>
-    <t>Please provide input for Wave File</t>
-  </si>
-  <si>
-    <t>Duplicate Record</t>
-  </si>
-  <si>
-    <t>ErrorMsg7</t>
-  </si>
-  <si>
-    <t>ErrorMsg1</t>
+    <t>lemits</t>
+  </si>
+  <si>
+    <t>Product Codes</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Dev Updated</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +492,7 @@
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,30 +512,30 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -546,31 +550,30 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -578,9 +581,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -594,9 +661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -604,12 +671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +688,7 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,15 +708,15 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -663,28 +730,27 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +761,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,12 +781,12 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -734,11 +800,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/HostValueMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15750" windowHeight="6615" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Delete" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q9"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>WaveFile</t>
-  </si>
-  <si>
-    <t>PinkPanther60.wav</t>
   </si>
   <si>
     <t>Description</t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Dev Updated</t>
+  </si>
+  <si>
+    <t>maybe-next-time-huh.wav</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,33 +509,33 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -547,31 +547,31 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -609,33 +609,33 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
     </row>
     <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,18 +705,18 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -727,17 +727,17 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -750,13 +750,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -778,15 +779,15 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -797,14 +798,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
